--- a/data/georgia_census/samegrelo/mestia/age_dependency.xlsx
+++ b/data/georgia_census/samegrelo/mestia/age_dependency.xlsx
@@ -1007,13 +1007,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7A2FF1C-C41F-4CE1-BB51-6331CEC0EE9B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{862B2F8E-616B-4062-946D-CF69464AEAD8}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35F5809D-EA51-417B-B686-524BDA635180}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4BA7095-2D55-4883-B66C-B318BC8D8744}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2226367E-1518-4B40-B1F3-161B544BC6AE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B2405A6-2DD4-4D20-A909-562ADBFD4BE6}"/>
 </file>